--- a/Individual Tests.xlsx
+++ b/Individual Tests.xlsx
@@ -665,7 +665,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
